--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="verifyValid_credentials" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
   <si>
     <t>username</t>
   </si>
@@ -98,12 +98,6 @@
     <t>ABCD</t>
   </si>
   <si>
-    <t>stickynote</t>
-  </si>
-  <si>
-    <t>hi crm</t>
-  </si>
-  <si>
     <t>messagesubject</t>
   </si>
   <si>
@@ -219,6 +213,21 @@
   </si>
   <si>
     <t>tffhhg</t>
+  </si>
+  <si>
+    <t>All teammembers</t>
+  </si>
+  <si>
+    <t>Checkboxtext</t>
+  </si>
+  <si>
+    <t>Radiotext</t>
+  </si>
+  <si>
+    <t>All team members</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -583,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +613,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>12345678</v>
@@ -646,7 +655,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -665,22 +674,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -691,22 +700,22 @@
         <v>12345678</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5">
         <v>45052</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="5">
         <v>45177</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -723,7 +732,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -739,13 +748,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -756,13 +765,13 @@
         <v>12345678</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -774,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -791,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -802,7 +811,7 @@
         <v>12345678</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1050,13 +1059,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1067,13 +1076,13 @@
         <v>12345678</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1102,28 +1111,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1134,13 +1143,13 @@
         <v>12345678</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1155,7 +1164,7 @@
         <v>895</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1169,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1181,7 +1190,7 @@
     <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1189,19 +1198,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1209,16 +1221,19 @@
         <v>12345678</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" s="5">
         <v>45051</v>
       </c>
       <c r="F2" s="5">
         <v>45082</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1232,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1246,7 +1261,7 @@
     <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1260,16 +1275,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1277,10 +1295,10 @@
         <v>12345678</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="5">
         <v>45143</v>
@@ -1289,7 +1307,10 @@
         <v>45177</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,27 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="verifyValid_credentials" sheetId="1" r:id="rId1"/>
-    <sheet name="verifyAddDashboardTest" sheetId="5" r:id="rId2"/>
-    <sheet name="verifyAddNotesTest" sheetId="2" r:id="rId3"/>
-    <sheet name="verifyAddItemsTest" sheetId="3" r:id="rId4"/>
-    <sheet name="verifyAddClientsTest" sheetId="4" r:id="rId5"/>
-    <sheet name="verifyUseraddmessage" sheetId="6" r:id="rId6"/>
-    <sheet name="verifyUseraddprofile" sheetId="9" r:id="rId7"/>
-    <sheet name="verifyAddAnnouncements" sheetId="10" r:id="rId8"/>
-    <sheet name="verifyUseraddevent" sheetId="12" r:id="rId9"/>
-    <sheet name="verifyTime" sheetId="13" r:id="rId10"/>
-    <sheet name="messageData" sheetId="14" r:id="rId11"/>
+    <sheet name="verifyAddDashboardTest" sheetId="5" r:id="rId1"/>
+    <sheet name="verifyAddNotesTest" sheetId="2" r:id="rId2"/>
+    <sheet name="verifyAddItemsTest" sheetId="3" r:id="rId3"/>
+    <sheet name="verifyAddClientsTest" sheetId="4" r:id="rId4"/>
+    <sheet name="verifyUseraddmessage" sheetId="6" r:id="rId5"/>
+    <sheet name="verifyUseraddprofile" sheetId="9" r:id="rId6"/>
+    <sheet name="verifyAddAnnouncements" sheetId="10" r:id="rId7"/>
+    <sheet name="verifyUseraddevent" sheetId="12" r:id="rId8"/>
+    <sheet name="verifyTime" sheetId="13" r:id="rId9"/>
+    <sheet name="messageData" sheetId="14" r:id="rId10"/>
+    <sheet name="verifyValid_credentials" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>username</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Hello world</t>
   </si>
   <si>
-    <t>tffhhg</t>
-  </si>
-  <si>
     <t>All teammembers</t>
   </si>
   <si>
@@ -228,6 +225,9 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
 </sst>
 </file>
@@ -590,132 +590,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>62</v>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>12345678</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>894645</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>12345678</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
-    <hyperlink ref="A4" r:id="rId3"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>12345678</v>
-      </c>
       <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45052</v>
-      </c>
-      <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="5">
-        <v>45177</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -723,11 +628,10 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -779,50 +683,52 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>12345678</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>12345678</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -873,7 +779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -937,7 +843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -1035,7 +941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1090,7 +996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1176,7 +1082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1210,7 +1116,7 @@
         <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1233,7 +1139,7 @@
         <v>45082</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1284,7 +1190,7 @@
         <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1310,7 +1216,84 @@
         <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45052</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45177</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,27 +4,36 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
-    <sheet name="verifyAddDashboardTest" sheetId="5" r:id="rId1"/>
-    <sheet name="verifyAddNotesTest" sheetId="2" r:id="rId2"/>
-    <sheet name="verifyAddItemsTest" sheetId="3" r:id="rId3"/>
+    <sheet name="verifyDashboardLogo" sheetId="5" r:id="rId1"/>
+    <sheet name="verifyAddNotesTestTitle" sheetId="2" r:id="rId2"/>
+    <sheet name="verifyAddItemsDescription" sheetId="3" r:id="rId3"/>
     <sheet name="verifyAddClientsTest" sheetId="4" r:id="rId4"/>
-    <sheet name="verifyUseraddmessage" sheetId="6" r:id="rId5"/>
-    <sheet name="verifyUseraddprofile" sheetId="9" r:id="rId6"/>
-    <sheet name="verifyAddAnnouncements" sheetId="10" r:id="rId7"/>
-    <sheet name="verifyUseraddevent" sheetId="12" r:id="rId8"/>
-    <sheet name="verifyTime" sheetId="13" r:id="rId9"/>
-    <sheet name="messageData" sheetId="14" r:id="rId10"/>
-    <sheet name="verifyValid_credentials" sheetId="15" r:id="rId11"/>
+    <sheet name="verifyUsermessagesent" sheetId="6" r:id="rId5"/>
+    <sheet name="verifyUseraddprofileAddress" sheetId="9" r:id="rId6"/>
+    <sheet name="verifyAddAnnouncementsTitle" sheetId="10" r:id="rId7"/>
+    <sheet name="verifyUseraddeventDescrition" sheetId="12" r:id="rId8"/>
+    <sheet name="VerifyTimeTeammemberrequired" sheetId="13" r:id="rId9"/>
+    <sheet name="verifyValid_credentials" sheetId="15" r:id="rId10"/>
+    <sheet name="invalid_username" sheetId="16" r:id="rId11"/>
+    <sheet name="titleErrorAnnouncement" sheetId="17" r:id="rId12"/>
+    <sheet name="companynameRequired" sheetId="18" r:id="rId13"/>
+    <sheet name="verifyDashboardDocumentRequired" sheetId="19" r:id="rId14"/>
+    <sheet name="verifyUseraddeventTitle" sheetId="20" r:id="rId15"/>
+    <sheet name="verifyItemsTitle" sheetId="21" r:id="rId16"/>
+    <sheet name="verifyUserSubjectRequired" sheetId="22" r:id="rId17"/>
+    <sheet name="verifyAddNotesDescription" sheetId="23" r:id="rId18"/>
+    <sheet name="verifyFirstName" sheetId="24" r:id="rId19"/>
+    <sheet name="verifyUseraddClientAddress" sheetId="25" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
   <si>
     <t>username</t>
   </si>
@@ -195,15 +204,6 @@
   </si>
   <si>
     <t>HI</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Write a message</t>
   </si>
   <si>
     <t>sending message</t>
@@ -593,7 +593,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -633,15 +633,399 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45051</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45082</v>
+      </c>
+      <c r="G2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>5456</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>565656556</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>8654</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45143</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45177</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -652,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -671,69 +1055,150 @@
       <c r="C2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
       <c r="E2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>12345678</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>45623</v>
+      </c>
+      <c r="H2">
+        <v>855</v>
+      </c>
+      <c r="I2">
+        <v>895</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -779,12 +1244,101 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>5456</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>565656556</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>8654</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -848,7 +1402,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -946,7 +1500,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -985,10 +1539,10 @@
         <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1555,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1087,7 +1641,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1116,7 +1670,7 @@
         <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1139,7 +1693,7 @@
         <v>45082</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1710,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1190,7 +1744,7 @@
         <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1216,7 +1770,7 @@
         <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1232,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,36 +4,34 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="15" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="verifyDashboardLogo" sheetId="5" r:id="rId1"/>
+    <sheet name="Dashboardtest" sheetId="5" r:id="rId1"/>
     <sheet name="verifyAddNotesTestTitle" sheetId="2" r:id="rId2"/>
-    <sheet name="verifyAddItemsDescription" sheetId="3" r:id="rId3"/>
+    <sheet name="Itemstest" sheetId="3" r:id="rId3"/>
     <sheet name="verifyAddClientsTest" sheetId="4" r:id="rId4"/>
     <sheet name="verifyUsermessagesent" sheetId="6" r:id="rId5"/>
     <sheet name="verifyUseraddprofileAddress" sheetId="9" r:id="rId6"/>
-    <sheet name="verifyAddAnnouncementsTitle" sheetId="10" r:id="rId7"/>
-    <sheet name="verifyUseraddeventDescrition" sheetId="12" r:id="rId8"/>
+    <sheet name="Announcementtest" sheetId="10" r:id="rId7"/>
+    <sheet name="Eventstest" sheetId="12" r:id="rId8"/>
     <sheet name="VerifyTimeTeammemberrequired" sheetId="13" r:id="rId9"/>
-    <sheet name="verifyValid_credentials" sheetId="15" r:id="rId10"/>
-    <sheet name="invalid_username" sheetId="16" r:id="rId11"/>
-    <sheet name="titleErrorAnnouncement" sheetId="17" r:id="rId12"/>
-    <sheet name="companynameRequired" sheetId="18" r:id="rId13"/>
-    <sheet name="verifyDashboardDocumentRequired" sheetId="19" r:id="rId14"/>
-    <sheet name="verifyUseraddeventTitle" sheetId="20" r:id="rId15"/>
-    <sheet name="verifyItemsTitle" sheetId="21" r:id="rId16"/>
-    <sheet name="verifyUserSubjectRequired" sheetId="22" r:id="rId17"/>
-    <sheet name="verifyAddNotesDescription" sheetId="23" r:id="rId18"/>
-    <sheet name="verifyFirstName" sheetId="24" r:id="rId19"/>
-    <sheet name="verifyUseraddClientAddress" sheetId="25" r:id="rId20"/>
+    <sheet name="companynameRequired" sheetId="18" r:id="rId10"/>
+    <sheet name="verifyDashboardDocumentRequired" sheetId="19" r:id="rId11"/>
+    <sheet name="verifyUseraddeventTitle" sheetId="20" r:id="rId12"/>
+    <sheet name="verifyItemsTitle" sheetId="21" r:id="rId13"/>
+    <sheet name="verifyUserSubjectRequired" sheetId="22" r:id="rId14"/>
+    <sheet name="verifyAddNotesDescription" sheetId="23" r:id="rId15"/>
+    <sheet name="verifyFirstName" sheetId="24" r:id="rId16"/>
+    <sheet name="verifyUseraddClientAddress" sheetId="25" r:id="rId17"/>
+    <sheet name="Logintest" sheetId="29" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="69">
   <si>
     <t>username</t>
   </si>
@@ -227,7 +225,19 @@
     <t>description</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>admin@1</t>
+  </si>
+  <si>
+    <t>Authentication failed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>This field is required.</t>
   </si>
 </sst>
 </file>
@@ -237,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +265,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF6A3E3E"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -283,7 +299,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -295,6 +311,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -590,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -601,7 +618,7 @@
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,8 +628,14 @@
       <c r="C1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -621,6 +644,12 @@
       </c>
       <c r="C2" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -628,145 +657,11 @@
     <hyperlink ref="A2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>12345678</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2">
-        <v>12345678</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>12345678</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5">
-        <v>45051</v>
-      </c>
-      <c r="F2" s="5">
-        <v>45082</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -852,7 +747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -889,7 +784,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -956,7 +851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -1014,7 +909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1064,7 +959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1110,7 +1005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1193,12 +1088,154 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>5456</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>565656556</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>8654</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>12345678</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1244,101 +1281,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>12345678</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>5456</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>565656556</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>8654</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1402,7 +1350,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1500,7 +1448,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1555,7 +1503,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1638,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1650,7 +1598,7 @@
     <col min="5" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1672,8 +1620,11 @@
       <c r="G1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1695,6 +1646,14 @@
       <c r="G2" t="s">
         <v>59</v>
       </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1707,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1758,7 +1717,7 @@
         <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="E2" s="5">
         <v>45143</v>
@@ -1770,15 +1729,42 @@
         <v>51</v>
       </c>
       <c r="H2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>12345678</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5">
+        <v>45143</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45177</v>
+      </c>
+      <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboardtest" sheetId="5" r:id="rId1"/>
     <sheet name="verifyAddNotesTestTitle" sheetId="2" r:id="rId2"/>
     <sheet name="Itemstest" sheetId="3" r:id="rId3"/>
     <sheet name="verifyAddClientsTest" sheetId="4" r:id="rId4"/>
-    <sheet name="verifyUsermessagesent" sheetId="6" r:id="rId5"/>
-    <sheet name="verifyUseraddprofileAddress" sheetId="9" r:id="rId6"/>
+    <sheet name="Messagetest" sheetId="6" r:id="rId5"/>
+    <sheet name="Profiletest" sheetId="9" r:id="rId6"/>
     <sheet name="Announcementtest" sheetId="10" r:id="rId7"/>
     <sheet name="Eventstest" sheetId="12" r:id="rId8"/>
     <sheet name="VerifyTimeTeammemberrequired" sheetId="13" r:id="rId9"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="70">
   <si>
     <t>username</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>This field is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
   </si>
 </sst>
 </file>
@@ -609,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1445,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1459,7 +1462,7 @@
     <col min="4" max="4" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1475,8 +1478,11 @@
       <c r="E1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1491,6 +1497,9 @@
       </c>
       <c r="E2" t="s">
         <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1500,10 +1509,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1511,7 +1520,7 @@
     <col min="5" max="5" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1542,8 +1551,32 @@
       <c r="J1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1572,6 +1605,30 @@
         <v>895</v>
       </c>
       <c r="J2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <v>45623</v>
+      </c>
+      <c r="P2">
+        <v>855</v>
+      </c>
+      <c r="Q2">
+        <v>895</v>
+      </c>
+      <c r="R2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1579,6 +1636,7 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="M2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1668,7 +1726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,34 +4,34 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboardtest" sheetId="5" r:id="rId1"/>
-    <sheet name="verifyAddNotesTestTitle" sheetId="2" r:id="rId2"/>
+    <sheet name="verifyAddNotesTitle" sheetId="2" r:id="rId2"/>
     <sheet name="Itemstest" sheetId="3" r:id="rId3"/>
     <sheet name="verifyAddClientsTest" sheetId="4" r:id="rId4"/>
     <sheet name="Messagetest" sheetId="6" r:id="rId5"/>
     <sheet name="Profiletest" sheetId="9" r:id="rId6"/>
     <sheet name="Announcementtest" sheetId="10" r:id="rId7"/>
     <sheet name="Eventstest" sheetId="12" r:id="rId8"/>
-    <sheet name="VerifyTimeTeammemberrequired" sheetId="13" r:id="rId9"/>
-    <sheet name="companynameRequired" sheetId="18" r:id="rId10"/>
-    <sheet name="verifyDashboardDocumentRequired" sheetId="19" r:id="rId11"/>
-    <sheet name="verifyUseraddeventTitle" sheetId="20" r:id="rId12"/>
-    <sheet name="verifyItemsTitle" sheetId="21" r:id="rId13"/>
-    <sheet name="verifyUserSubjectRequired" sheetId="22" r:id="rId14"/>
-    <sheet name="verifyAddNotesDescription" sheetId="23" r:id="rId15"/>
-    <sheet name="verifyFirstName" sheetId="24" r:id="rId16"/>
-    <sheet name="verifyUseraddClientAddress" sheetId="25" r:id="rId17"/>
-    <sheet name="Logintest" sheetId="29" r:id="rId18"/>
+    <sheet name="companynameRequired" sheetId="18" r:id="rId9"/>
+    <sheet name="verifyDashboardDocumentRequired" sheetId="19" r:id="rId10"/>
+    <sheet name="verifyUseraddeventTitle" sheetId="20" r:id="rId11"/>
+    <sheet name="verifyItemsTitle" sheetId="21" r:id="rId12"/>
+    <sheet name="verifyUserSubjectRequired" sheetId="22" r:id="rId13"/>
+    <sheet name="verifyAddNotesDescription" sheetId="23" r:id="rId14"/>
+    <sheet name="verifyFirstName" sheetId="24" r:id="rId15"/>
+    <sheet name="verifClientsCompanyName" sheetId="25" r:id="rId16"/>
+    <sheet name="Logintest" sheetId="29" r:id="rId17"/>
+    <sheet name="Timecardtest" sheetId="30" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="71">
   <si>
     <t>username</t>
   </si>
@@ -168,79 +168,82 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Teammember</t>
-  </si>
-  <si>
-    <t>Indate</t>
+    <t>keerthana sasi</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Tvm</t>
+  </si>
+  <si>
+    <t>sending message</t>
+  </si>
+  <si>
+    <t>Hello world</t>
+  </si>
+  <si>
+    <t>All teammembers</t>
+  </si>
+  <si>
+    <t>Checkboxtext</t>
+  </si>
+  <si>
+    <t>Radiotext</t>
+  </si>
+  <si>
+    <t>All team members</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>admin@1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>This field is required.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>teammember</t>
+  </si>
+  <si>
+    <t>InDate</t>
+  </si>
+  <si>
+    <t>InTime</t>
+  </si>
+  <si>
+    <t>OutDate</t>
   </si>
   <si>
     <t>OutTime</t>
   </si>
   <si>
-    <t>keerthana sasi</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>Tvm</t>
-  </si>
-  <si>
-    <t>Intime</t>
-  </si>
-  <si>
-    <t>Outdate</t>
-  </si>
-  <si>
-    <t>01:00AM</t>
-  </si>
-  <si>
-    <t>05:00PM</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>sending message</t>
-  </si>
-  <si>
-    <t>Hello world</t>
-  </si>
-  <si>
-    <t>All teammembers</t>
-  </si>
-  <si>
-    <t>Checkboxtext</t>
-  </si>
-  <si>
-    <t>Radiotext</t>
-  </si>
-  <si>
-    <t>All team members</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>admin@1</t>
-  </si>
-  <si>
-    <t>Authentication failed!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t>This field is required.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
+    <t>1:00AM</t>
+  </si>
+  <si>
+    <t>4:00PM</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          keerthana sasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
@@ -250,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +279,12 @@
       <color rgb="FF2A00FF"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -313,8 +322,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -612,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -629,13 +640,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -649,10 +660,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -665,92 +676,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>12345678</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>5456</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2">
-        <v>565656556</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>8654</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -768,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -787,7 +712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -817,10 +742,10 @@
         <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -840,10 +765,10 @@
         <v>45177</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -912,12 +837,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -951,10 +876,10 @@
         <v>12345678</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -962,7 +887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1008,7 +933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -1091,12 +1016,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1180,12 +1105,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1201,19 +1126,17 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>12345678</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
@@ -1233,12 +1156,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>12345678</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45265</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45293</v>
+      </c>
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1"/>
+      <c r="C3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45265</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45293</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="F6" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1490,16 +1512,16 @@
         <v>12345678</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
         <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1608,7 +1630,7 @@
         <v>39</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="L2" t="s">
         <v>34</v>
@@ -1676,7 +1698,7 @@
         <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>43</v>
@@ -1702,10 +1724,10 @@
         <v>45082</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1758,10 +1780,10 @@
         <v>42</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1772,10 +1794,10 @@
         <v>12345678</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E2" s="5">
         <v>45143</v>
@@ -1784,10 +1806,10 @@
         <v>45177</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1798,7 +1820,7 @@
         <v>12345678</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1810,10 +1832,10 @@
         <v>45177</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1828,21 +1850,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="14.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1850,55 +1866,70 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2">
         <v>12345678</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45052</v>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="5">
-        <v>45177</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>56</v>
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>5456</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2">
+        <v>565656556</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>8654</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="14" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboardtest" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="71">
   <si>
     <t>username</t>
   </si>
@@ -1018,15 +1018,15 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,11 +1057,8 @@
       <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1091,9 +1088,6 @@
       </c>
       <c r="J2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K2">
-        <v>8654</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="14" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboardtest" sheetId="5" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1527,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
